--- a/docs/influence/auto/sadness/gw_full_nlp_n5-25_oter_sadness.xlsx
+++ b/docs/influence/auto/sadness/gw_full_nlp_n5-25_oter_sadness.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/cat/Users/dend/prog/say_sila/docs/influence/auto/sadness/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DCD3B8B5-09AA-3643-90B8-2EE0BAC5858B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E9B7E802-9AFA-6445-A283-550A3246902E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62020" yWindow="8700" windowWidth="33940" windowHeight="17440"/>
+    <workbookView xWindow="7960" yWindow="6700" windowWidth="31740" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="gw_full_nlp_n5-25_oter_sadness" sheetId="1" r:id="rId1"/>
@@ -943,7 +943,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,19 +1033,19 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>-0.10793</v>
+        <v>1.5358E-2</v>
       </c>
       <c r="F2">
         <v>39</v>
       </c>
       <c r="T2">
-        <v>-0.13703099999999999</v>
+        <v>-0.15431500000000001</v>
       </c>
       <c r="U2">
-        <v>0.13873199999999999</v>
+        <v>0.14460200000000001</v>
       </c>
       <c r="W2">
-        <v>0.14766899999999999</v>
+        <v>0.149751</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1062,16 +1062,16 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>-4.5319999999999996E-3</v>
+        <v>0.107638</v>
       </c>
       <c r="F3">
         <v>39</v>
       </c>
       <c r="T3">
-        <v>-6.6191E-2</v>
+        <v>-7.9146999999999995E-2</v>
       </c>
       <c r="W3">
-        <v>0.15403600000000001</v>
+        <v>0.15608900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1088,25 +1088,25 @@
         <v>25</v>
       </c>
       <c r="E4" s="1">
-        <v>0.70444799999999996</v>
+        <v>0.70068200000000003</v>
       </c>
       <c r="F4" s="1">
         <v>39</v>
       </c>
       <c r="H4" s="1">
-        <v>0.23016</v>
+        <v>0.23145299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.214699</v>
+        <v>0.20512900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>-5.8291999999999997E-2</v>
+        <v>-5.9852000000000002E-2</v>
       </c>
       <c r="V4" s="1">
-        <v>6.0796999999999997E-2</v>
+        <v>6.1971999999999999E-2</v>
       </c>
       <c r="W4" s="1">
-        <v>-1.9540999999999999E-2</v>
+        <v>-1.5803999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -1123,34 +1123,34 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0.44354900000000003</v>
+        <v>0.409188</v>
       </c>
       <c r="F5">
         <v>39</v>
       </c>
       <c r="G5">
-        <v>0.26187199999999999</v>
+        <v>0.321409</v>
       </c>
       <c r="H5">
-        <v>0.178038</v>
-      </c>
-      <c r="J5">
-        <v>9.5893000000000006E-2</v>
+        <v>0.167348</v>
       </c>
       <c r="O5">
-        <v>-8.3948999999999996E-2</v>
+        <v>-6.8562999999999999E-2</v>
       </c>
       <c r="S5">
-        <v>-8.1088999999999994E-2</v>
+        <v>-9.5465999999999995E-2</v>
+      </c>
+      <c r="T5">
+        <v>-7.4692999999999996E-2</v>
       </c>
       <c r="U5">
-        <v>9.6539E-2</v>
+        <v>0.16708600000000001</v>
       </c>
       <c r="V5">
-        <v>7.8034000000000006E-2</v>
+        <v>7.0990999999999999E-2</v>
       </c>
       <c r="W5">
-        <v>-2.6380000000000002E-3</v>
+        <v>3.1431000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -1167,69 +1167,69 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0.67423999999999995</v>
+        <v>0.69717099999999999</v>
       </c>
       <c r="F6">
         <v>39</v>
       </c>
       <c r="G6">
-        <v>0.25058399999999997</v>
+        <v>0.34048699999999998</v>
       </c>
       <c r="H6">
-        <v>0.15720000000000001</v>
-      </c>
-      <c r="J6">
-        <v>6.9096000000000005E-2</v>
+        <v>0.151287</v>
       </c>
       <c r="O6">
-        <v>-8.1411999999999998E-2</v>
+        <v>-8.9289999999999994E-2</v>
       </c>
       <c r="S6">
-        <v>-7.5605000000000006E-2</v>
+        <v>-9.8722000000000004E-2</v>
       </c>
       <c r="U6">
-        <v>0.10510700000000001</v>
+        <v>0.10749</v>
       </c>
       <c r="V6">
-        <v>7.7784000000000006E-2</v>
+        <v>8.3282999999999996E-2</v>
       </c>
       <c r="W6">
-        <v>1.7186E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7">
+        <v>3.2224000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>0.69636799999999999</v>
-      </c>
-      <c r="F7">
-        <v>39</v>
-      </c>
-      <c r="I7">
-        <v>0.476655</v>
-      </c>
-      <c r="J7">
-        <v>6.4711000000000005E-2</v>
-      </c>
-      <c r="T7">
-        <v>-8.1212999999999994E-2</v>
-      </c>
-      <c r="U7">
-        <v>0.112974</v>
-      </c>
-      <c r="W7">
-        <v>4.3640999999999999E-2</v>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.731379</v>
+      </c>
+      <c r="F7" s="1">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.7307000000000005E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.29075899999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.2236999999999996E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-4.0936E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>4.6686999999999999E-2</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3.8864000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1246,28 +1246,22 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>0.77626499999999998</v>
+        <v>0.75581500000000001</v>
       </c>
       <c r="F8" s="1">
         <v>39</v>
       </c>
       <c r="I8" s="1">
-        <v>0.42236699999999999</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5.9583999999999998E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.121893</v>
-      </c>
-      <c r="O8" s="1">
-        <v>-3.9447999999999997E-2</v>
-      </c>
-      <c r="V8" s="1">
-        <v>3.9465E-2</v>
+        <v>0.49580099999999999</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-0.10485800000000001</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.11183899999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>3.1875000000000001E-2</v>
+        <v>7.2095999999999993E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1284,28 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>0.759459</v>
+        <v>0.76310199999999995</v>
       </c>
       <c r="F9" s="1">
         <v>39</v>
       </c>
       <c r="I9" s="1">
-        <v>0.39427499999999999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4.7490999999999998E-2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.119367</v>
-      </c>
-      <c r="O9" s="1">
-        <v>-3.6242000000000003E-2</v>
-      </c>
-      <c r="V9" s="1">
-        <v>3.6478999999999998E-2</v>
+        <v>0.456978</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-9.6077999999999997E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>9.5989000000000005E-2</v>
       </c>
       <c r="W9" s="1">
-        <v>4.2643E-2</v>
+        <v>7.9625000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1322,25 +1310,25 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>0.72877000000000003</v>
+        <v>0.76055600000000001</v>
       </c>
       <c r="F10" s="1">
         <v>39</v>
       </c>
       <c r="I10" s="1">
-        <v>0.416518</v>
+        <v>0.40096199999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>0.13470599999999999</v>
+        <v>0.120458</v>
       </c>
       <c r="T10" s="1">
-        <v>-6.0157000000000002E-2</v>
+        <v>-8.0990999999999994E-2</v>
       </c>
       <c r="U10" s="1">
-        <v>7.4524999999999994E-2</v>
+        <v>8.9315000000000005E-2</v>
       </c>
       <c r="W10" s="1">
-        <v>6.0922999999999998E-2</v>
+        <v>6.7665000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1357,60 +1345,60 @@
         <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>0.72716099999999995</v>
+        <v>0.75934999999999997</v>
       </c>
       <c r="F11" s="1">
         <v>39</v>
       </c>
       <c r="I11" s="1">
-        <v>0.417993</v>
+        <v>0.40224399999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>0.13158600000000001</v>
+        <v>0.11463</v>
       </c>
       <c r="T11" s="1">
-        <v>-5.9750999999999999E-2</v>
+        <v>-8.0415E-2</v>
       </c>
       <c r="U11" s="1">
-        <v>7.4272000000000005E-2</v>
+        <v>8.9067999999999994E-2</v>
       </c>
       <c r="W11" s="1">
-        <v>6.1372999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+        <v>6.8581000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.79910400000000004</v>
-      </c>
-      <c r="F12" s="1">
-        <v>39</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.37353500000000001</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0.14555899999999999</v>
-      </c>
-      <c r="O12" s="1">
-        <v>-4.5262999999999998E-2</v>
-      </c>
-      <c r="V12" s="1">
-        <v>4.4037E-2</v>
-      </c>
-      <c r="W12" s="1">
-        <v>6.4561999999999994E-2</v>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.80768300000000004</v>
+      </c>
+      <c r="F12" s="2">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.37068000000000001</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.134766</v>
+      </c>
+      <c r="O12" s="2">
+        <v>-4.7810999999999999E-2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>4.5395999999999999E-2</v>
+      </c>
+      <c r="W12" s="2">
+        <v>6.6961999999999994E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1427,34 +1415,28 @@
         <v>25</v>
       </c>
       <c r="E13" s="2">
-        <v>0.80074299999999998</v>
+        <v>0.84999800000000003</v>
       </c>
       <c r="F13" s="2">
         <v>39</v>
       </c>
-      <c r="H13" s="2">
-        <v>-7.8834000000000001E-2</v>
-      </c>
       <c r="I13" s="2">
-        <v>0.54119399999999995</v>
+        <v>0.41091699999999998</v>
       </c>
       <c r="L13" s="2">
-        <v>9.7362000000000004E-2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0.14056199999999999</v>
+        <v>0.137179</v>
       </c>
       <c r="N13" s="2">
-        <v>-9.8086000000000007E-2</v>
+        <v>-8.9755000000000001E-2</v>
       </c>
       <c r="O13" s="2">
-        <v>-6.6607E-2</v>
+        <v>-6.8415000000000004E-2</v>
       </c>
       <c r="V13" s="2">
-        <v>4.8666000000000001E-2</v>
+        <v>5.1855999999999999E-2</v>
       </c>
       <c r="W13" s="2">
-        <v>6.9794999999999996E-2</v>
+        <v>7.7897999999999995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1471,25 +1453,28 @@
         <v>25</v>
       </c>
       <c r="E14" s="2">
-        <v>0.84877800000000003</v>
+        <v>0.84984800000000005</v>
       </c>
       <c r="F14" s="2">
         <v>39</v>
       </c>
       <c r="I14" s="2">
-        <v>0.42964000000000002</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.14841599999999999</v>
+        <v>0.423877</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.13336700000000001</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-8.3793000000000006E-2</v>
       </c>
       <c r="O14" s="2">
-        <v>-6.4159999999999995E-2</v>
+        <v>-7.2314000000000003E-2</v>
       </c>
       <c r="V14" s="2">
-        <v>3.7534999999999999E-2</v>
+        <v>4.9142999999999999E-2</v>
       </c>
       <c r="W14" s="2">
-        <v>6.5050999999999998E-2</v>
+        <v>7.7428999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1506,25 +1491,25 @@
         <v>25</v>
       </c>
       <c r="E15" s="2">
-        <v>0.82224200000000003</v>
+        <v>0.83006999999999997</v>
       </c>
       <c r="F15" s="2">
         <v>39</v>
       </c>
       <c r="I15" s="2">
-        <v>0.40583200000000003</v>
+        <v>0.40146799999999999</v>
       </c>
       <c r="M15" s="2">
-        <v>0.16331300000000001</v>
+        <v>0.15446499999999999</v>
       </c>
       <c r="O15" s="2">
-        <v>-6.5017000000000005E-2</v>
+        <v>-6.7456000000000002E-2</v>
       </c>
       <c r="V15" s="2">
-        <v>3.7270999999999999E-2</v>
+        <v>3.8233000000000003E-2</v>
       </c>
       <c r="W15" s="2">
-        <v>6.6598000000000004E-2</v>
+        <v>6.8893999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1541,60 +1526,60 @@
         <v>25</v>
       </c>
       <c r="E16" s="2">
-        <v>0.81246200000000002</v>
+        <v>0.81997100000000001</v>
       </c>
       <c r="F16" s="2">
         <v>39</v>
       </c>
       <c r="I16" s="2">
-        <v>0.37448100000000001</v>
+        <v>0.37076100000000001</v>
       </c>
       <c r="M16" s="2">
-        <v>0.13041700000000001</v>
+        <v>0.12500700000000001</v>
       </c>
       <c r="O16" s="2">
-        <v>-6.4825999999999995E-2</v>
+        <v>-6.8140000000000006E-2</v>
       </c>
       <c r="V16" s="2">
-        <v>3.8793000000000001E-2</v>
+        <v>4.0152E-2</v>
       </c>
       <c r="W16" s="2">
-        <v>7.7063000000000006E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+        <v>7.8723000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.79804200000000003</v>
-      </c>
-      <c r="F17" s="1">
-        <v>39</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.35380699999999998</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0.143815</v>
-      </c>
-      <c r="O17" s="1">
-        <v>-6.7089999999999997E-2</v>
-      </c>
-      <c r="V17" s="1">
-        <v>4.1713E-2</v>
-      </c>
-      <c r="W17" s="1">
-        <v>7.7807000000000001E-2</v>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.80612499999999998</v>
+      </c>
+      <c r="F17" s="2">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.350939</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.139182</v>
+      </c>
+      <c r="O17" s="2">
+        <v>-7.0439000000000002E-2</v>
+      </c>
+      <c r="V17" s="2">
+        <v>4.3222999999999998E-2</v>
+      </c>
+      <c r="W17" s="2">
+        <v>7.9158000000000006E-2</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1611,63 +1596,60 @@
         <v>25</v>
       </c>
       <c r="E18" s="1">
-        <v>0.75288900000000003</v>
+        <v>0.76155099999999998</v>
       </c>
       <c r="F18" s="1">
         <v>39</v>
       </c>
       <c r="I18" s="1">
-        <v>0.31494</v>
+        <v>0.31315300000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>0.12703900000000001</v>
+        <v>0.124014</v>
       </c>
       <c r="O18" s="1">
-        <v>-6.7052E-2</v>
+        <v>-6.9842000000000001E-2</v>
       </c>
       <c r="V18" s="1">
-        <v>4.0571000000000003E-2</v>
+        <v>4.1895000000000002E-2</v>
       </c>
       <c r="W18" s="1">
-        <v>8.6859000000000006E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19">
+        <v>8.7677000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>0.67626200000000003</v>
-      </c>
-      <c r="F19">
-        <v>39</v>
-      </c>
-      <c r="H19">
-        <v>-5.3261999999999997E-2</v>
-      </c>
-      <c r="I19">
-        <v>0.37095099999999998</v>
-      </c>
-      <c r="M19">
-        <v>0.13959299999999999</v>
-      </c>
-      <c r="O19">
-        <v>-6.8805000000000005E-2</v>
-      </c>
-      <c r="V19">
-        <v>3.7287000000000001E-2</v>
-      </c>
-      <c r="W19">
-        <v>9.2432E-2</v>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.73361100000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>39</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.28306199999999998</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.122449</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-7.3651999999999995E-2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>4.1438000000000003E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>9.3543000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1684,25 +1666,25 @@
         <v>25</v>
       </c>
       <c r="E20" s="1">
-        <v>0.736958</v>
+        <v>0.74601399999999995</v>
       </c>
       <c r="F20" s="1">
         <v>39</v>
       </c>
       <c r="G20" s="1">
-        <v>-0.102114</v>
+        <v>-0.10616100000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>0.40538200000000002</v>
+        <v>0.40901399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>-5.3891000000000001E-2</v>
+        <v>-5.6349000000000003E-2</v>
       </c>
       <c r="V20" s="1">
-        <v>3.4207000000000001E-2</v>
+        <v>3.5539000000000001E-2</v>
       </c>
       <c r="W20" s="1">
-        <v>0.11404</v>
+        <v>0.114132</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1719,60 +1701,60 @@
         <v>25</v>
       </c>
       <c r="E21" s="1">
-        <v>0.71755400000000003</v>
+        <v>0.73184199999999999</v>
       </c>
       <c r="F21" s="1">
         <v>39</v>
       </c>
       <c r="G21" s="1">
-        <v>-9.4340999999999994E-2</v>
+        <v>-9.7746E-2</v>
       </c>
       <c r="I21" s="1">
-        <v>0.40115299999999998</v>
+        <v>0.404449</v>
       </c>
       <c r="O21" s="1">
-        <v>-5.0717999999999999E-2</v>
+        <v>-5.3678999999999998E-2</v>
       </c>
       <c r="V21" s="1">
-        <v>3.2382000000000001E-2</v>
+        <v>3.3779999999999998E-2</v>
       </c>
       <c r="W21" s="1">
-        <v>0.114826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>0.68883000000000005</v>
-      </c>
-      <c r="F22">
-        <v>39</v>
-      </c>
-      <c r="G22">
-        <v>-9.6934000000000006E-2</v>
-      </c>
-      <c r="I22">
-        <v>0.38721</v>
-      </c>
-      <c r="O22">
-        <v>-5.7695000000000003E-2</v>
-      </c>
-      <c r="V22">
-        <v>3.3118000000000002E-2</v>
-      </c>
-      <c r="W22">
-        <v>0.116453</v>
+        <v>0.11493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.70609</v>
+      </c>
+      <c r="F22" s="1">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.102215</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.39256400000000002</v>
+      </c>
+      <c r="O22" s="1">
+        <v>-6.1122000000000003E-2</v>
+      </c>
+      <c r="V22" s="1">
+        <v>3.4604000000000003E-2</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.116632</v>
       </c>
     </row>
   </sheetData>
